--- a/data/최종_스트레칭_3차.xlsx
+++ b/data/최종_스트레칭_3차.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\multicampus\Desktop\서버\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\multicampus\Desktop\HiBixby\final_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="681">
   <si>
     <t>목 스트레칭</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2187,10 +2187,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>✔ 턱을 들 때 손에 힘을 살짝 주어 근육이 끌려가지 않도록 저항을 더해주세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>📌 목의 신경이 다치지 않도록 근육을 천천히 늘려주어야 해요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2279,10 +2275,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>📌 몸의 무게를 지탱하는 어깨에 과도한 긴장이 있을 경우 허리가 풀리는 것이 아니라 어꺠가 많이 뭉치게 돼요. 월경 중에는 근육의 수축 현상이 많아 이를 해소하기 위한 순환을 목적으로 하는 동작이기에 아프지 않은 적당한 입력을 주는 것을 첫번째로 하세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>📌 손발 끝에 과하게 힘을 주면 저릴 수 있으니 어깨와 엉덩이에는 힘을 빼고 바닥에 누운채 동작을 이어가세요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2455,270 +2447,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>✔ 팔을 당길 때 시선은 당기는 반대 방향을 바라보세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>✔ 복부를 말아줄 때는 골반의 툭 튀어나온 부분이 정면을 바라보게 하고, 복부를 이완시켜줄 때는 골반의 툭 튀어 나온 부분을 바닥 쪽으로 눌러주세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>✔ 팔을 길게 뻗어주고 근육을 이완시키며 쉬어주세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>✔ 골반이 움직이지 않도록 하체는 고정하세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>✔ 운동을 수행했을 때 허리는 편 상태로 유지하며 가능한 범위까지만 앉아주세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>✔ 허리를 구부리지 않아야 하고 통증이 있는 지점에서 버티며 스트레칭을 하세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>✔ 가슴을 열 때는 발가락을 고정하기 위하여 손으로 발가락을 발등 쪽으로 당겨주세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>✔ 허리와 무릎에 힘을 주어 다리를 바닥으로 누르세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">✔ 목과 어깨의 이완을 더 잘 느낄 수 있도록 어깨가 위로 올라오지 않게 바닥이 손을 당긴다는 느낌으로 팔을 밀어주세요. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>✔ 어깨가 위로 올라오지 않도록 반대쪽 손을 뒤쪽으로 보내주세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>✔ 턱을 당길 때에는 손으로 머리를 받쳐 머리가 밀리지 않도록 하고 서로 저항하는 힘을 키워주세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>✔ 목을 뒤로 젖혀줄 때 호흡을 내쉬며 목젖 부분의 근육을 충분히 늘려주세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>✔ 가슴이 최대한 바닥 쪽으로 향할 수 있도록 지그시 눌러주세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>✔ 복부의 힘을 주어 허리가 과도하게 꺽이지 않도록 하세요. 가슴 근육이 짧아져있는 사람은 허리가 심하게 꺾일 수 있기 때문에 최대한 허리가 꺾이지 않도록 복부에 힘을 주고 날개뼈만 모아주는 느낌으로 지그시 눌러주어야 합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>✔ 어깨가 정면을 바라보고 있는 것이 이 동작에서 가장 중요합니다. 팔꿈치가 무릎에 걸려서 저항이 있는 상태이기 때문에 몸이 동그랗게 말리더라도 어깨의 움직임에 집중하세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>✔ 발끝은 플렉스를 해준 상태로 가슴을 최대한 열어주세요. 이때 억지로 자세를 잡기 위해 힘을 쓰면 다른 부위들에 통증이 생길 수 있으므로 할 수 있는 곳부터 천천히 늘여주는 방법으로 가는 게 가장 좋아요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>✔ 내쉬는 호흡에 어깨의 가동성을 효율적으로 높이기 위해 손끝을 어깨까지 끌어올리세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>✔ 양쪽 어깨의 높이가 맞도록 해주세요. 호흡을 뱉으면서 내려갈 때 팔이 아니라 어깨가 바닥에 닿도록 동작을 해주세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>✔ 오른 어깨를 지그시 바닥으로 눌러주면서 말린 어깨를 펴주세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>✔ 깍지가 풀리지 않도록 해주며 가슴의 전면부가 당기는 느낌을 받아야 해요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>✔ 엄지발가락으로 바닥을 밀어주면 맞닿은 가슴 윗부분이 더 큰 압박을 받아 스트레칭을 할 수 있어요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>✔ 밀고 당기는 힘의 균형이 중요해요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>✔ 몸의 무게중심이 바닥으로 더 많이 향할수록 강한 자극을 받을 수 있어요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>✔ 상하체의 순환을 돕는 근육을 푸는 동작으로 엉덩이에 적당한 힘을 주어 바닥으로 눌러주세요. 누르는 힘이 강할 수록 자극이 더 커져요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>✔ 동작 내내 엉덩이가 떨어지지 않고 어깨와 허리가 말리거나 꺾이지 않도록 균형을 잡고 늘어나는 쪽 엉덩이를 바닥에 지속적으로 붙이는 힘을 주는 것 또한 중요해요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>✔ 무릎을 지그시 앞으로 눌러주며 하체의 순환을 도와주는 근육을 자극하면서 그 반동으로 손끝을 뒤로 보내주세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>✔ 발뒤꿈치로 매트를 밀어내는 힘을 꼭 기억하고 오른 무릎은 계속해서 앞으로 미세요. 목은 길게 늘이고 어깨는 아래로 끌어내리듯 힘을 주어 어깨와 귀가 멀리 떨어지도록 하세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>✔ 고관절을 회전시켜 근육을 풀어주세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>✔ 왼쪽 골반을 지그시 눌러주며 수평을 맞춰 두 엉덩이의 균형을 유지하는 것이 중요해요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>✔ 어깨가 말리지 않도록 겨드랑이와 어깨에 힘을 주어 매트로 내려가세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>✔ 내쉬는 호흡에 무게중심을 엉덩이와 발끝에 줌 손바닥이 바닥에서 빠지지 않게 하세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>✔ 무릎과 엉덩이의 무게중심을 좌우로 움직일 때 고관절의 움직임을 느끼세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>✔ 무릎이 발목 위치보다 밖으로 넘어가지 않도록 하세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>✔ 복부에 힘을 주어 상체를 세우고, 허벅지 뒤쪽 햄스트링을 늘이며 골반의 정렬이 틀어지지 않도록 하세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>✔ 몸이 휘청거리지 않도록 복부에 힘을 주어 무게중심을 잡으세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>✔ 머리부터 엉덩이까지 수직이 되도록 복부에 힘을 주세요. 버티는 다리를 많이 구부릴 경우 엉덩이 근육보다 허벅지가 발달이 될 수 있어요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>✔ 어깨가 앞으로 말리거나 뒤로 쏠리지 않고 곧게 옆으로 내려가야 해요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>✔ 발끝은 멀리 보내 발가락부터 하체 전체가 일직선이 되도록 해주세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>✔ 발가락은 포인을 한 상태에서 하늘을 향해야 해요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>✔ 엉덩이와 허벅지 안쪽에 모두 힘이 들어갈 수 있도록 발끝에 힘을 주며 동작을 하세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>✔ 등허리가 말리지 않아야 해요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>✔ 등허리를 펴준 상태로 동작을 이어가야 해요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>✔ 앞으로 내려가 허리를 늘일 때 뻗은 다리를 고정시키고 이때 골반을 뻗은 다리 쪽으로 늘려주세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>✔ 복부에 힘을 주어 허리에 커브가 그려지도록 하세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>✔ 어깨와 귀는 최대한 멀리 보내 어깨의 긴장을 주지 않도록 하세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>✔ 무릎과 복숭아뼈가 만나도록 하고 정강이가 일직선이 되도록 해주세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>✔ 발뒤꿈치를 접어 엉덩이에 닿게 해주고 손으로 당기세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>✔ 등허리를 바르게 펴고 동작하세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>✔ 오른쪽 발등으로 바닥을 눌러주어 발목에 무리가 가지 않도록 하세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>✔ 다리의 위치는 고정하고 골반을 앞, 뒤로 움직이세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>✔ 다리는 바닥에 붙이고 골반만 움직이세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>✔ 들어준 다링의 골반은 바닥에 닿아야 해요. 골반이 바닥에 닿지 않는다면 엉덩이에 힘을 주어 누르세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>✔ 무릎이 복숭아뼈보다 앞으로 나가지 않도록 잡아주고 최대한 늘여준 상태에서 동작을 실행하세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>✔ 1번 자세로 돌아올 때 소리가 나지 않도록 천천히 늘어나는 근육을 느끼면서 내려오세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>✔ 엉덩이에 힘을 주고 골반을 앞으로 만다는 느낌으로 해주어야 해요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>✔ 가슴이 바닥에 닿고 있을 때 엉덩이는 무릎보다 뒤쪽으로 빠지도록 중심을 옮겨주세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>✔ 발 끝을 플렉스하고 한쪽으로 골반이 치우쳐지지 않도록 적당한 힘으로 늘려주세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>✔ 엄지발가락으로 바닥을 밀어주면 맞닿은 가슴 윗부분이 더 큰 압박을 받아 스트레칭 할 수 있어요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>✔ 호흡하면서 좌우로 움직일 때 양손으로 무릎과 발목을 지그시 늘려주면서 문질러주세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>✔ 척추부터 발목까지는 일자로 유지되도록 복부에 힘을 주세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>✔ 자극이 없을 경우 자세는 유지하고 폼롤러가 닿는 위치를 바꾸어주세요. 엉덩이의 위쪽 부분에 폼롤러를 대주면 더욱더 자극이 느껴져요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>✔ 이때 골반은 정면을 향하고, 가슴을 늘이는 느낌으로 지그시 눌러주세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>✔ 폼롤러로 몸을 지지하면서 상체가 올라오고 내려갈 때 살짝 움직여서 폼롤러의 도움을 받아주는 게 좋아요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>✔ 처음 자세로 돌아오지 않고 늘여준 상태에서 무릎만 접었다 폈다 반복하세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>✔ 90도로 접은 다리 말고는 모의 모든 부분이 바닥에 닿아있어야 해요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>✔ 발끝은 항상 플렉스를 유지하고 킥을 찼을 때 엉덩이가 바닥에서 떨어지지 않게 하세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>미음자세1.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2739,15 +2467,217 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>허리,골반, 옆구리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>허리,엉덩이, 골반, 허벅지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>팔,어깨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>💡 턱을 들 때 손에 힘을 살짝 주어 근육이 끌려가지 않도록 저항을 더해주세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>💡 팔을 당길 때 시선은 당기는 반대 방향을 바라보세요.</t>
+  </si>
+  <si>
+    <t>💡 복부를 말아줄 때는 골반의 툭 튀어나온 부분이 정면을 바라보게 하고, 복부를 이완시켜줄 때는 골반의 툭 튀어 나온 부분을 바닥 쪽으로 눌러주세요.</t>
+  </si>
+  <si>
+    <t>💡 팔을 길게 뻗어주고 근육을 이완시키며 쉬어주세요.</t>
+  </si>
+  <si>
+    <t>💡 골반이 움직이지 않도록 하체는 고정하세요.</t>
+  </si>
+  <si>
+    <t>💡 운동을 수행했을 때 허리는 편 상태로 유지하며 가능한 범위까지만 앉아주세요.</t>
+  </si>
+  <si>
+    <t>💡 허리를 구부리지 않아야 하고 통증이 있는 지점에서 버티며 스트레칭을 하세요.</t>
+  </si>
+  <si>
+    <t>💡 가슴을 열 때는 발가락을 고정하기 위하여 손으로 발가락을 발등 쪽으로 당겨주세요.</t>
+  </si>
+  <si>
+    <t>💡 허리와 무릎에 힘을 주어 다리를 바닥으로 누르세요.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">💡 목과 어깨의 이완을 더 잘 느낄 수 있도록 어깨가 위로 올라오지 않게 바닥이 손을 당긴다는 느낌으로 팔을 밀어주세요. </t>
+  </si>
+  <si>
+    <t>💡 어깨가 위로 올라오지 않도록 반대쪽 손을 뒤쪽으로 보내주세요.</t>
+  </si>
+  <si>
+    <t>💡 턱을 당길 때에는 손으로 머리를 받쳐 머리가 밀리지 않도록 하고 서로 저항하는 힘을 키워주세요.</t>
+  </si>
+  <si>
+    <t>💡 목을 뒤로 젖혀줄 때 호흡을 내쉬며 목젖 부분의 근육을 충분히 늘려주세요.</t>
+  </si>
+  <si>
+    <t>💡 가슴이 최대한 바닥 쪽으로 향할 수 있도록 지그시 눌러주세요.</t>
+  </si>
+  <si>
+    <t>💡 복부의 힘을 주어 허리가 과도하게 꺽이지 않도록 하세요. 가슴 근육이 짧아져있는 사람은 허리가 심하게 꺾일 수 있기 때문에 최대한 허리가 꺾이지 않도록 복부에 힘을 주고 날개뼈만 모아주는 느낌으로 지그시 눌러주어야 합니다.</t>
+  </si>
+  <si>
+    <t>💡 어깨가 정면을 바라보고 있는 것이 이 동작에서 가장 중요합니다. 팔꿈치가 무릎에 걸려서 저항이 있는 상태이기 때문에 몸이 동그랗게 말리더라도 어깨의 움직임에 집중하세요.</t>
+  </si>
+  <si>
+    <t>💡 발끝은 플렉스를 해준 상태로 가슴을 최대한 열어주세요. 이때 억지로 자세를 잡기 위해 힘을 쓰면 다른 부위들에 통증이 생길 수 있으므로 할 수 있는 곳부터 천천히 늘여주는 방법으로 가는 게 가장 좋아요.</t>
+  </si>
+  <si>
+    <t>💡 내쉬는 호흡에 어깨의 가동성을 효율적으로 높이기 위해 손끝을 어깨까지 끌어올리세요.</t>
+  </si>
+  <si>
+    <t>💡 양쪽 어깨의 높이가 맞도록 해주세요. 호흡을 뱉으면서 내려갈 때 팔이 아니라 어깨가 바닥에 닿도록 동작을 해주세요.</t>
+  </si>
+  <si>
+    <t>💡 오른 어깨를 지그시 바닥으로 눌러주면서 말린 어깨를 펴주세요.</t>
+  </si>
+  <si>
+    <t>💡 깍지가 풀리지 않도록 해주며 가슴의 전면부가 당기는 느낌을 받아야 해요.</t>
+  </si>
+  <si>
+    <t>💡 엄지발가락으로 바닥을 밀어주면 맞닿은 가슴 윗부분이 더 큰 압박을 받아 스트레칭을 할 수 있어요.</t>
+  </si>
+  <si>
+    <t>💡 밀고 당기는 힘의 균형이 중요해요</t>
+  </si>
+  <si>
+    <t>💡 몸의 무게중심이 바닥으로 더 많이 향할수록 강한 자극을 받을 수 있어요.</t>
+  </si>
+  <si>
+    <t>💡 상하체의 순환을 돕는 근육을 푸는 동작으로 엉덩이에 적당한 힘을 주어 바닥으로 눌러주세요. 누르는 힘이 강할 수록 자극이 더 커져요.</t>
+  </si>
+  <si>
+    <t>💡 동작 내내 엉덩이가 떨어지지 않고 어깨와 허리가 말리거나 꺾이지 않도록 균형을 잡고 늘어나는 쪽 엉덩이를 바닥에 지속적으로 붙이는 힘을 주는 것 또한 중요해요.</t>
+  </si>
+  <si>
+    <t>💡 무릎을 지그시 앞으로 눌러주며 하체의 순환을 도와주는 근육을 자극하면서 그 반동으로 손끝을 뒤로 보내주세요.</t>
+  </si>
+  <si>
+    <t>💡 발뒤꿈치로 매트를 밀어내는 힘을 꼭 기억하고 오른 무릎은 계속해서 앞으로 미세요. 목은 길게 늘이고 어깨는 아래로 끌어내리듯 힘을 주어 어깨와 귀가 멀리 떨어지도록 하세요.</t>
+  </si>
+  <si>
+    <t>💡 고관절을 회전시켜 근육을 풀어주세요.</t>
+  </si>
+  <si>
+    <t>💡 왼쪽 골반을 지그시 눌러주며 수평을 맞춰 두 엉덩이의 균형을 유지하는 것이 중요해요.</t>
+  </si>
+  <si>
+    <t>💡 어깨가 말리지 않도록 겨드랑이와 어깨에 힘을 주어 매트로 내려가세요.</t>
+  </si>
+  <si>
+    <t>💡 내쉬는 호흡에 무게중심을 엉덩이와 발끝에 줌 손바닥이 바닥에서 빠지지 않게 하세요.</t>
+  </si>
+  <si>
+    <t>💡 무릎과 엉덩이의 무게중심을 좌우로 움직일 때 고관절의 움직임을 느끼세요.</t>
+  </si>
+  <si>
+    <t>💡 무릎이 발목 위치보다 밖으로 넘어가지 않도록 하세요.</t>
+  </si>
+  <si>
+    <t>💡 복부에 힘을 주어 상체를 세우고, 허벅지 뒤쪽 햄스트링을 늘이며 골반의 정렬이 틀어지지 않도록 하세요.</t>
+  </si>
+  <si>
+    <t>💡 몸이 휘청거리지 않도록 복부에 힘을 주어 무게중심을 잡으세요.</t>
+  </si>
+  <si>
+    <t>💡 머리부터 엉덩이까지 수직이 되도록 복부에 힘을 주세요. 버티는 다리를 많이 구부릴 경우 엉덩이 근육보다 허벅지가 발달이 될 수 있어요.</t>
+  </si>
+  <si>
+    <t>💡 어깨가 앞으로 말리거나 뒤로 쏠리지 않고 곧게 옆으로 내려가야 해요.</t>
+  </si>
+  <si>
+    <t>💡 발끝은 멀리 보내 발가락부터 하체 전체가 일직선이 되도록 해주세요.</t>
+  </si>
+  <si>
+    <t>💡 발가락은 포인을 한 상태에서 하늘을 향해야 해요.</t>
+  </si>
+  <si>
+    <t>💡 엉덩이와 허벅지 안쪽에 모두 힘이 들어갈 수 있도록 발끝에 힘을 주며 동작을 하세요.</t>
+  </si>
+  <si>
+    <t>💡 등허리가 말리지 않아야 해요.</t>
+  </si>
+  <si>
+    <t>💡 등허리를 펴준 상태로 동작을 이어가야 해요.</t>
+  </si>
+  <si>
+    <t>💡 앞으로 내려가 허리를 늘일 때 뻗은 다리를 고정시키고 이때 골반을 뻗은 다리 쪽으로 늘려주세요.</t>
+  </si>
+  <si>
+    <t>💡 복부에 힘을 주어 허리에 커브가 그려지도록 하세요.</t>
+  </si>
+  <si>
+    <t>💡 어깨와 귀는 최대한 멀리 보내 어깨의 긴장을 주지 않도록 하세요.</t>
+  </si>
+  <si>
+    <t>💡 무릎과 복숭아뼈가 만나도록 하고 정강이가 일직선이 되도록 해주세요.</t>
+  </si>
+  <si>
+    <t>💡 발뒤꿈치를 접어 엉덩이에 닿게 해주고 손으로 당기세요.</t>
+  </si>
+  <si>
+    <t>💡 등허리를 바르게 펴고 동작하세요.</t>
+  </si>
+  <si>
+    <t>💡 오른쪽 발등으로 바닥을 눌러주어 발목에 무리가 가지 않도록 하세요.</t>
+  </si>
+  <si>
+    <t>💡 다리의 위치는 고정하고 골반을 앞, 뒤로 움직이세요.</t>
+  </si>
+  <si>
+    <t>💡 다리는 바닥에 붙이고 골반만 움직이세요.</t>
+  </si>
+  <si>
+    <t>💡 들어준 다링의 골반은 바닥에 닿아야 해요. 골반이 바닥에 닿지 않는다면 엉덩이에 힘을 주어 누르세요.</t>
+  </si>
+  <si>
+    <t>💡 무릎이 복숭아뼈보다 앞으로 나가지 않도록 잡아주고 최대한 늘여준 상태에서 동작을 실행하세요.</t>
+  </si>
+  <si>
+    <t>💡 1번 자세로 돌아올 때 소리가 나지 않도록 천천히 늘어나는 근육을 느끼면서 내려오세요.</t>
+  </si>
+  <si>
+    <t>💡 엉덩이에 힘을 주고 골반을 앞으로 만다는 느낌으로 해주어야 해요.</t>
+  </si>
+  <si>
+    <t>💡 가슴이 바닥에 닿고 있을 때 엉덩이는 무릎보다 뒤쪽으로 빠지도록 중심을 옮겨주세요.</t>
+  </si>
+  <si>
+    <t>💡 발 끝을 플렉스하고 한쪽으로 골반이 치우쳐지지 않도록 적당한 힘으로 늘려주세요.</t>
+  </si>
+  <si>
+    <t>💡 엄지발가락으로 바닥을 밀어주면 맞닿은 가슴 윗부분이 더 큰 압박을 받아 스트레칭 할 수 있어요.</t>
+  </si>
+  <si>
+    <t>💡 호흡하면서 좌우로 움직일 때 양손으로 무릎과 발목을 지그시 늘려주면서 문질러주세요.</t>
+  </si>
+  <si>
+    <t>💡 척추부터 발목까지는 일자로 유지되도록 복부에 힘을 주세요.</t>
+  </si>
+  <si>
+    <t>💡 자극이 없을 경우 자세는 유지하고 폼롤러가 닿는 위치를 바꾸어주세요. 엉덩이의 위쪽 부분에 폼롤러를 대주면 더욱더 자극이 느껴져요.</t>
+  </si>
+  <si>
+    <t>💡 이때 골반은 정면을 향하고, 가슴을 늘이는 느낌으로 지그시 눌러주세요.</t>
+  </si>
+  <si>
+    <t>💡 폼롤러로 몸을 지지하면서 상체가 올라오고 내려갈 때 살짝 움직여서 폼롤러의 도움을 받아주는 게 좋아요.</t>
+  </si>
+  <si>
+    <t>💡 처음 자세로 돌아오지 않고 늘여준 상태에서 무릎만 접었다 폈다 반복하세요.</t>
+  </si>
+  <si>
+    <t>💡 90도로 접은 다리 말고는 모의 모든 부분이 바닥에 닿아있어야 해요.</t>
+  </si>
+  <si>
+    <t>💡 발끝은 항상 플렉스를 유지하고 킥을 찼을 때 엉덩이가 바닥에서 떨어지지 않게 하세요.</t>
+  </si>
+  <si>
+    <t>📌 몸의 무게를 지탱하는 어깨에 과도한 긴장이 있을 경우 허리가 풀리는 것이 아니라 어깨가 많이 뭉치게 돼요. 월경 중에는 근육의 수축 현상이 많아 이를 해소하기 위한 순환을 목적으로 하는 동작이기에 아프지 않은 적당한 입력을 주는 것을 첫번째로 하세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>허리,엉덩이,골반,허벅지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2794,8 +2724,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3078,10 +3011,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N67"/>
+  <dimension ref="A1:R69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68:R135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3093,16 +3026,16 @@
     <col min="5" max="5" width="21.3984375" customWidth="1"/>
     <col min="6" max="6" width="127.296875" customWidth="1"/>
     <col min="7" max="7" width="14.19921875" customWidth="1"/>
-    <col min="8" max="8" width="80.796875" customWidth="1"/>
-    <col min="9" max="9" width="104.19921875" customWidth="1"/>
-    <col min="10" max="10" width="138.5" customWidth="1"/>
-    <col min="11" max="11" width="16.796875" customWidth="1"/>
-    <col min="12" max="12" width="26" customWidth="1"/>
-    <col min="13" max="13" width="101.69921875" customWidth="1"/>
-    <col min="14" max="14" width="36.8984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="80.796875" customWidth="1"/>
+    <col min="13" max="13" width="104.19921875" customWidth="1"/>
+    <col min="14" max="14" width="138.5" customWidth="1"/>
+    <col min="15" max="15" width="16.796875" customWidth="1"/>
+    <col min="16" max="16" width="26" customWidth="1"/>
+    <col min="17" max="17" width="101.69921875" customWidth="1"/>
+    <col min="18" max="18" width="36.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3121,26 +3054,26 @@
       <c r="F1" t="s">
         <v>484</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
+        <v>612</v>
+      </c>
+      <c r="N1" t="s">
         <v>541</v>
       </c>
-      <c r="J1" t="s">
-        <v>542</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>20</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>21</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>22</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3159,26 +3092,26 @@
       <c r="F2" t="s">
         <v>485</v>
       </c>
-      <c r="I2" t="s">
-        <v>608</v>
-      </c>
-      <c r="J2" t="s">
-        <v>543</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
+        <v>613</v>
+      </c>
+      <c r="N2" t="s">
+        <v>542</v>
+      </c>
+      <c r="O2" t="s">
         <v>20</v>
       </c>
-      <c r="L2" t="s">
-        <v>681</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
+        <v>611</v>
+      </c>
+      <c r="Q2" t="s">
         <v>26</v>
       </c>
-      <c r="N2" t="s">
+      <c r="R2" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3197,26 +3130,26 @@
       <c r="F3" t="s">
         <v>30</v>
       </c>
-      <c r="I3" t="s">
-        <v>609</v>
-      </c>
-      <c r="J3" t="s">
-        <v>544</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
+        <v>614</v>
+      </c>
+      <c r="N3" t="s">
+        <v>543</v>
+      </c>
+      <c r="O3" t="s">
         <v>31</v>
       </c>
-      <c r="L3" t="s">
+      <c r="P3" t="s">
         <v>32</v>
       </c>
-      <c r="M3" t="s">
+      <c r="Q3" t="s">
         <v>33</v>
       </c>
-      <c r="N3" t="s">
+      <c r="R3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3229,26 +3162,26 @@
       <c r="D4" t="s">
         <v>35</v>
       </c>
-      <c r="I4" t="s">
-        <v>610</v>
-      </c>
-      <c r="J4" t="s">
-        <v>545</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
+        <v>615</v>
+      </c>
+      <c r="N4" t="s">
+        <v>544</v>
+      </c>
+      <c r="O4" t="s">
         <v>31</v>
       </c>
-      <c r="L4" t="s">
+      <c r="P4" t="s">
         <v>36</v>
       </c>
-      <c r="M4" t="s">
+      <c r="Q4" t="s">
         <v>37</v>
       </c>
-      <c r="N4" t="s">
+      <c r="R4" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3267,26 +3200,26 @@
       <c r="F5" t="s">
         <v>42</v>
       </c>
-      <c r="I5" t="s">
-        <v>611</v>
-      </c>
-      <c r="J5" t="s">
-        <v>546</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="M5" t="s">
+        <v>616</v>
+      </c>
+      <c r="N5" t="s">
+        <v>545</v>
+      </c>
+      <c r="O5" t="s">
         <v>31</v>
       </c>
-      <c r="L5" t="s">
+      <c r="P5" t="s">
         <v>43</v>
       </c>
-      <c r="M5" t="s">
+      <c r="Q5" t="s">
         <v>44</v>
       </c>
-      <c r="N5" t="s">
+      <c r="R5" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3305,26 +3238,26 @@
       <c r="F6" t="s">
         <v>486</v>
       </c>
-      <c r="I6" t="s">
-        <v>612</v>
-      </c>
-      <c r="J6" t="s">
-        <v>547</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="M6" t="s">
+        <v>617</v>
+      </c>
+      <c r="N6" t="s">
+        <v>546</v>
+      </c>
+      <c r="O6" t="s">
         <v>31</v>
       </c>
-      <c r="L6" t="s">
+      <c r="P6" t="s">
         <v>48</v>
       </c>
-      <c r="M6" t="s">
+      <c r="Q6" t="s">
         <v>49</v>
       </c>
-      <c r="N6" t="s">
+      <c r="R6" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3343,26 +3276,26 @@
       <c r="F7" t="s">
         <v>487</v>
       </c>
-      <c r="I7" t="s">
-        <v>613</v>
-      </c>
-      <c r="J7" t="s">
-        <v>548</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="M7" t="s">
+        <v>618</v>
+      </c>
+      <c r="N7" t="s">
+        <v>547</v>
+      </c>
+      <c r="O7" t="s">
         <v>31</v>
       </c>
-      <c r="L7" t="s">
+      <c r="P7" t="s">
         <v>53</v>
       </c>
-      <c r="M7" t="s">
+      <c r="Q7" t="s">
         <v>331</v>
       </c>
-      <c r="N7" t="s">
+      <c r="R7" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3381,26 +3314,26 @@
       <c r="F8" t="s">
         <v>488</v>
       </c>
-      <c r="I8" t="s">
-        <v>614</v>
-      </c>
-      <c r="J8" t="s">
-        <v>549</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="M8" t="s">
+        <v>619</v>
+      </c>
+      <c r="N8" t="s">
+        <v>548</v>
+      </c>
+      <c r="O8" t="s">
         <v>31</v>
       </c>
-      <c r="L8" t="s">
+      <c r="P8" t="s">
         <v>57</v>
       </c>
-      <c r="M8" t="s">
+      <c r="Q8" t="s">
         <v>58</v>
       </c>
-      <c r="N8" t="s">
+      <c r="R8" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -3419,26 +3352,26 @@
       <c r="F9" t="s">
         <v>489</v>
       </c>
-      <c r="I9" t="s">
-        <v>615</v>
-      </c>
-      <c r="J9" t="s">
-        <v>550</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="M9" t="s">
+        <v>620</v>
+      </c>
+      <c r="N9" t="s">
+        <v>549</v>
+      </c>
+      <c r="O9" t="s">
         <v>31</v>
       </c>
-      <c r="L9" t="s">
+      <c r="P9" t="s">
         <v>57</v>
       </c>
-      <c r="M9" t="s">
+      <c r="Q9" t="s">
         <v>62</v>
       </c>
-      <c r="N9" t="s">
+      <c r="R9" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -3457,26 +3390,26 @@
       <c r="F10" t="s">
         <v>66</v>
       </c>
-      <c r="I10" t="s">
-        <v>616</v>
-      </c>
-      <c r="J10" t="s">
-        <v>551</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="M10" t="s">
+        <v>621</v>
+      </c>
+      <c r="N10" t="s">
+        <v>550</v>
+      </c>
+      <c r="O10" t="s">
         <v>67</v>
       </c>
-      <c r="L10" t="s">
+      <c r="P10" t="s">
         <v>68</v>
       </c>
-      <c r="M10" t="s">
+      <c r="Q10" t="s">
         <v>22</v>
       </c>
-      <c r="N10" t="s">
+      <c r="R10" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -3495,26 +3428,26 @@
       <c r="F11" t="s">
         <v>89</v>
       </c>
-      <c r="I11" t="s">
-        <v>617</v>
-      </c>
-      <c r="J11" t="s">
-        <v>552</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="M11" t="s">
+        <v>622</v>
+      </c>
+      <c r="N11" t="s">
+        <v>551</v>
+      </c>
+      <c r="O11" t="s">
         <v>67</v>
       </c>
-      <c r="L11" t="s">
+      <c r="P11" t="s">
         <v>68</v>
       </c>
-      <c r="M11" t="s">
+      <c r="Q11" t="s">
         <v>22</v>
       </c>
-      <c r="N11" t="s">
+      <c r="R11" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>70</v>
       </c>
@@ -3533,26 +3466,26 @@
       <c r="F12" t="s">
         <v>90</v>
       </c>
-      <c r="I12" t="s">
-        <v>618</v>
-      </c>
-      <c r="J12" t="s">
-        <v>553</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="M12" t="s">
+        <v>623</v>
+      </c>
+      <c r="N12" t="s">
+        <v>552</v>
+      </c>
+      <c r="O12" t="s">
         <v>67</v>
       </c>
-      <c r="L12" t="s">
+      <c r="P12" t="s">
         <v>93</v>
       </c>
-      <c r="M12" t="s">
+      <c r="Q12" t="s">
         <v>22</v>
       </c>
-      <c r="N12" t="s">
+      <c r="R12" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>71</v>
       </c>
@@ -3571,26 +3504,26 @@
       <c r="F13" t="s">
         <v>91</v>
       </c>
-      <c r="I13" t="s">
-        <v>619</v>
-      </c>
-      <c r="J13" t="s">
-        <v>554</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="M13" t="s">
+        <v>624</v>
+      </c>
+      <c r="N13" t="s">
+        <v>553</v>
+      </c>
+      <c r="O13" t="s">
         <v>67</v>
       </c>
-      <c r="L13" t="s">
+      <c r="P13" t="s">
         <v>21</v>
       </c>
-      <c r="M13" t="s">
+      <c r="Q13" t="s">
         <v>95</v>
       </c>
-      <c r="N13" t="s">
+      <c r="R13" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>72</v>
       </c>
@@ -3609,26 +3542,26 @@
       <c r="F14" t="s">
         <v>490</v>
       </c>
-      <c r="I14" t="s">
-        <v>620</v>
-      </c>
-      <c r="J14" t="s">
-        <v>555</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="M14" t="s">
+        <v>625</v>
+      </c>
+      <c r="N14" t="s">
+        <v>554</v>
+      </c>
+      <c r="O14" t="s">
         <v>92</v>
       </c>
-      <c r="L14" t="s">
+      <c r="P14" t="s">
         <v>94</v>
       </c>
-      <c r="M14" t="s">
+      <c r="Q14" t="s">
         <v>96</v>
       </c>
-      <c r="N14" t="s">
+      <c r="R14" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>97</v>
       </c>
@@ -3647,26 +3580,26 @@
       <c r="F15" t="s">
         <v>491</v>
       </c>
-      <c r="I15" t="s">
-        <v>621</v>
-      </c>
-      <c r="J15" t="s">
-        <v>556</v>
-      </c>
-      <c r="K15" t="s">
+      <c r="M15" t="s">
+        <v>626</v>
+      </c>
+      <c r="N15" t="s">
+        <v>555</v>
+      </c>
+      <c r="O15" t="s">
         <v>67</v>
       </c>
-      <c r="L15" t="s">
+      <c r="P15" t="s">
         <v>143</v>
       </c>
-      <c r="M15" t="s">
+      <c r="Q15" t="s">
         <v>145</v>
       </c>
-      <c r="N15" t="s">
+      <c r="R15" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>99</v>
       </c>
@@ -3685,26 +3618,26 @@
       <c r="F16" t="s">
         <v>492</v>
       </c>
-      <c r="I16" t="s">
-        <v>622</v>
-      </c>
-      <c r="J16" t="s">
-        <v>557</v>
-      </c>
-      <c r="K16" t="s">
+      <c r="M16" t="s">
+        <v>627</v>
+      </c>
+      <c r="N16" t="s">
+        <v>556</v>
+      </c>
+      <c r="O16" t="s">
         <v>92</v>
       </c>
-      <c r="L16" t="s">
+      <c r="P16" t="s">
         <v>146</v>
       </c>
-      <c r="M16" t="s">
+      <c r="Q16" t="s">
         <v>151</v>
       </c>
-      <c r="N16" t="s">
+      <c r="R16" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>100</v>
       </c>
@@ -3723,27 +3656,27 @@
       <c r="F17" t="s">
         <v>493</v>
       </c>
-      <c r="I17" t="s">
-        <v>623</v>
-      </c>
-      <c r="J17" t="s">
-        <v>558</v>
-      </c>
-      <c r="K17" t="str">
-        <f>$K$16</f>
+      <c r="M17" t="s">
+        <v>628</v>
+      </c>
+      <c r="N17" t="s">
+        <v>557</v>
+      </c>
+      <c r="O17" t="str">
+        <f>$O$16</f>
         <v>실내,집</v>
       </c>
-      <c r="L17" t="s">
+      <c r="P17" t="s">
         <v>147</v>
       </c>
-      <c r="M17" t="s">
+      <c r="Q17" t="s">
         <v>152</v>
       </c>
-      <c r="N17" t="s">
+      <c r="R17" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>102</v>
       </c>
@@ -3768,26 +3701,26 @@
       <c r="H18" t="s">
         <v>494</v>
       </c>
-      <c r="I18" t="s">
-        <v>624</v>
-      </c>
-      <c r="J18" t="s">
-        <v>559</v>
-      </c>
-      <c r="K18" t="s">
+      <c r="M18" t="s">
+        <v>629</v>
+      </c>
+      <c r="N18" t="s">
+        <v>558</v>
+      </c>
+      <c r="O18" t="s">
         <v>31</v>
       </c>
-      <c r="L18" t="s">
+      <c r="P18" t="s">
         <v>143</v>
       </c>
-      <c r="M18" t="s">
+      <c r="Q18" t="s">
         <v>148</v>
       </c>
-      <c r="N18" t="s">
+      <c r="R18" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>103</v>
       </c>
@@ -3806,26 +3739,26 @@
       <c r="F19" t="s">
         <v>495</v>
       </c>
-      <c r="I19" t="s">
-        <v>625</v>
-      </c>
-      <c r="J19" t="s">
-        <v>560</v>
-      </c>
-      <c r="K19" t="s">
+      <c r="M19" t="s">
+        <v>630</v>
+      </c>
+      <c r="N19" t="s">
+        <v>559</v>
+      </c>
+      <c r="O19" t="s">
         <v>149</v>
       </c>
-      <c r="L19" t="s">
+      <c r="P19" t="s">
         <v>150</v>
       </c>
-      <c r="M19" t="s">
+      <c r="Q19" t="s">
         <v>144</v>
       </c>
-      <c r="N19" t="s">
+      <c r="R19" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>104</v>
       </c>
@@ -3844,26 +3777,26 @@
       <c r="F20" t="s">
         <v>496</v>
       </c>
-      <c r="I20" t="s">
-        <v>626</v>
-      </c>
-      <c r="J20" t="s">
-        <v>561</v>
-      </c>
-      <c r="K20" t="s">
+      <c r="M20" t="s">
+        <v>631</v>
+      </c>
+      <c r="N20" t="s">
+        <v>560</v>
+      </c>
+      <c r="O20" t="s">
         <v>153</v>
       </c>
-      <c r="L20" t="s">
+      <c r="P20" t="s">
         <v>154</v>
       </c>
-      <c r="M20" t="s">
+      <c r="Q20" t="s">
         <v>148</v>
       </c>
-      <c r="N20" t="s">
+      <c r="R20" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>106</v>
       </c>
@@ -3882,26 +3815,26 @@
       <c r="F21" t="s">
         <v>497</v>
       </c>
-      <c r="I21" t="s">
-        <v>627</v>
-      </c>
-      <c r="J21" t="s">
-        <v>562</v>
-      </c>
-      <c r="K21" t="s">
+      <c r="M21" t="s">
+        <v>632</v>
+      </c>
+      <c r="N21" t="s">
+        <v>561</v>
+      </c>
+      <c r="O21" t="s">
         <v>153</v>
       </c>
-      <c r="L21" t="s">
+      <c r="P21" t="s">
         <v>155</v>
       </c>
-      <c r="M21" t="s">
+      <c r="Q21" t="s">
         <v>156</v>
       </c>
-      <c r="N21" t="s">
+      <c r="R21" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>107</v>
       </c>
@@ -3926,26 +3859,26 @@
       <c r="H22" t="s">
         <v>122</v>
       </c>
-      <c r="I22" t="s">
-        <v>628</v>
-      </c>
-      <c r="J22" t="s">
-        <v>544</v>
-      </c>
-      <c r="K22" t="s">
+      <c r="M22" t="s">
+        <v>633</v>
+      </c>
+      <c r="N22" t="s">
+        <v>543</v>
+      </c>
+      <c r="O22" t="s">
         <v>31</v>
       </c>
-      <c r="L22" t="s">
+      <c r="P22" t="s">
         <v>36</v>
       </c>
-      <c r="M22" t="s">
+      <c r="Q22" t="s">
         <v>157</v>
       </c>
-      <c r="N22" t="s">
+      <c r="R22" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>109</v>
       </c>
@@ -3964,26 +3897,26 @@
       <c r="F23" t="s">
         <v>498</v>
       </c>
-      <c r="I23" t="s">
-        <v>629</v>
-      </c>
-      <c r="J23" t="s">
-        <v>563</v>
-      </c>
-      <c r="K23" t="s">
+      <c r="M23" t="s">
+        <v>634</v>
+      </c>
+      <c r="N23" t="s">
+        <v>562</v>
+      </c>
+      <c r="O23" t="s">
         <v>31</v>
       </c>
-      <c r="L23" t="s">
+      <c r="P23" t="s">
         <v>158</v>
       </c>
-      <c r="M23" t="s">
+      <c r="Q23" t="s">
         <v>157</v>
       </c>
-      <c r="N23" t="s">
+      <c r="R23" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>159</v>
       </c>
@@ -4002,26 +3935,26 @@
       <c r="F24" t="s">
         <v>499</v>
       </c>
-      <c r="I24" t="s">
-        <v>630</v>
-      </c>
-      <c r="J24" t="s">
-        <v>564</v>
-      </c>
-      <c r="K24" t="s">
+      <c r="M24" t="s">
+        <v>635</v>
+      </c>
+      <c r="N24" t="s">
+        <v>679</v>
+      </c>
+      <c r="O24" t="s">
         <v>31</v>
       </c>
-      <c r="L24" t="s">
+      <c r="P24" t="s">
         <v>32</v>
       </c>
-      <c r="M24" t="s">
+      <c r="Q24" t="s">
         <v>157</v>
       </c>
-      <c r="N24" t="s">
+      <c r="R24" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>161</v>
       </c>
@@ -4046,26 +3979,26 @@
       <c r="H25" t="s">
         <v>500</v>
       </c>
-      <c r="I25" t="s">
-        <v>631</v>
-      </c>
-      <c r="J25" t="s">
-        <v>565</v>
-      </c>
-      <c r="K25" t="s">
+      <c r="M25" t="s">
+        <v>636</v>
+      </c>
+      <c r="N25" t="s">
+        <v>563</v>
+      </c>
+      <c r="O25" t="s">
         <v>31</v>
       </c>
-      <c r="L25" t="s">
+      <c r="P25" t="s">
         <v>32</v>
       </c>
-      <c r="M25" t="s">
+      <c r="Q25" t="s">
         <v>157</v>
       </c>
-      <c r="N25" t="s">
+      <c r="R25" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>163</v>
       </c>
@@ -4084,26 +4017,26 @@
       <c r="F26" t="s">
         <v>501</v>
       </c>
-      <c r="I26" t="s">
-        <v>632</v>
-      </c>
-      <c r="J26" t="s">
-        <v>566</v>
-      </c>
-      <c r="K26" t="s">
+      <c r="M26" t="s">
+        <v>637</v>
+      </c>
+      <c r="N26" t="s">
+        <v>564</v>
+      </c>
+      <c r="O26" t="s">
         <v>31</v>
       </c>
-      <c r="L26" t="s">
+      <c r="P26" t="s">
         <v>209</v>
       </c>
-      <c r="M26" t="s">
+      <c r="Q26" t="s">
         <v>157</v>
       </c>
-      <c r="N26" t="s">
+      <c r="R26" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>164</v>
       </c>
@@ -4128,26 +4061,26 @@
       <c r="H27" t="s">
         <v>502</v>
       </c>
-      <c r="I27" t="s">
-        <v>633</v>
-      </c>
-      <c r="J27" t="s">
-        <v>567</v>
-      </c>
-      <c r="K27" t="s">
+      <c r="M27" t="s">
+        <v>638</v>
+      </c>
+      <c r="N27" t="s">
+        <v>565</v>
+      </c>
+      <c r="O27" t="s">
         <v>210</v>
       </c>
-      <c r="L27" t="s">
+      <c r="P27" t="s">
         <v>211</v>
       </c>
-      <c r="M27" t="s">
+      <c r="Q27" t="s">
         <v>157</v>
       </c>
-      <c r="N27" t="s">
+      <c r="R27" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>166</v>
       </c>
@@ -4166,26 +4099,26 @@
       <c r="F28" t="s">
         <v>503</v>
       </c>
-      <c r="I28" t="s">
-        <v>634</v>
-      </c>
-      <c r="J28" t="s">
-        <v>568</v>
-      </c>
-      <c r="K28" t="s">
+      <c r="M28" t="s">
+        <v>639</v>
+      </c>
+      <c r="N28" t="s">
+        <v>566</v>
+      </c>
+      <c r="O28" t="s">
         <v>31</v>
       </c>
-      <c r="L28" t="s">
+      <c r="P28" t="s">
         <v>212</v>
       </c>
-      <c r="M28" t="s">
+      <c r="Q28" t="s">
         <v>157</v>
       </c>
-      <c r="N28" t="s">
+      <c r="R28" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>168</v>
       </c>
@@ -4204,26 +4137,26 @@
       <c r="F29" t="s">
         <v>504</v>
       </c>
-      <c r="I29" t="s">
-        <v>635</v>
-      </c>
-      <c r="J29" t="s">
-        <v>569</v>
-      </c>
-      <c r="K29" t="s">
+      <c r="M29" t="s">
+        <v>640</v>
+      </c>
+      <c r="N29" t="s">
+        <v>567</v>
+      </c>
+      <c r="O29" t="s">
         <v>31</v>
       </c>
-      <c r="L29" t="s">
+      <c r="P29" t="s">
         <v>241</v>
       </c>
-      <c r="M29" t="s">
+      <c r="Q29" t="s">
         <v>157</v>
       </c>
-      <c r="N29" t="s">
+      <c r="R29" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>170</v>
       </c>
@@ -4242,26 +4175,26 @@
       <c r="F30" t="s">
         <v>505</v>
       </c>
-      <c r="I30" t="s">
-        <v>636</v>
-      </c>
-      <c r="J30" t="s">
-        <v>570</v>
-      </c>
-      <c r="K30" t="s">
+      <c r="M30" t="s">
+        <v>641</v>
+      </c>
+      <c r="N30" t="s">
+        <v>568</v>
+      </c>
+      <c r="O30" t="s">
         <v>31</v>
       </c>
-      <c r="L30" t="s">
+      <c r="P30" t="s">
         <v>680</v>
       </c>
-      <c r="M30" t="s">
+      <c r="Q30" t="s">
         <v>242</v>
       </c>
-      <c r="N30" t="s">
+      <c r="R30" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>172</v>
       </c>
@@ -4286,26 +4219,26 @@
       <c r="H31" t="s">
         <v>506</v>
       </c>
-      <c r="I31" t="s">
-        <v>637</v>
-      </c>
-      <c r="J31" t="s">
-        <v>571</v>
-      </c>
-      <c r="K31" t="s">
+      <c r="M31" t="s">
+        <v>642</v>
+      </c>
+      <c r="N31" t="s">
+        <v>569</v>
+      </c>
+      <c r="O31" t="s">
         <v>31</v>
       </c>
-      <c r="L31" t="s">
+      <c r="P31" t="s">
         <v>245</v>
       </c>
-      <c r="M31" t="s">
+      <c r="Q31" t="s">
         <v>242</v>
       </c>
-      <c r="N31" t="s">
+      <c r="R31" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>173</v>
       </c>
@@ -4324,26 +4257,26 @@
       <c r="F32" t="s">
         <v>507</v>
       </c>
-      <c r="I32" t="s">
-        <v>638</v>
-      </c>
-      <c r="J32" t="s">
-        <v>572</v>
-      </c>
-      <c r="K32" t="s">
+      <c r="M32" t="s">
+        <v>643</v>
+      </c>
+      <c r="N32" t="s">
+        <v>570</v>
+      </c>
+      <c r="O32" t="s">
         <v>210</v>
       </c>
-      <c r="L32" t="s">
+      <c r="P32" t="s">
         <v>330</v>
       </c>
-      <c r="M32" t="s">
+      <c r="Q32" t="s">
         <v>332</v>
       </c>
-      <c r="N32" t="s">
+      <c r="R32" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>174</v>
       </c>
@@ -4362,26 +4295,26 @@
       <c r="F33" t="s">
         <v>508</v>
       </c>
-      <c r="I33" t="s">
-        <v>639</v>
-      </c>
-      <c r="J33" t="s">
-        <v>573</v>
-      </c>
-      <c r="K33" t="s">
+      <c r="M33" t="s">
+        <v>644</v>
+      </c>
+      <c r="N33" t="s">
+        <v>571</v>
+      </c>
+      <c r="O33" t="s">
         <v>210</v>
       </c>
-      <c r="L33" t="s">
+      <c r="P33" t="s">
         <v>330</v>
       </c>
-      <c r="M33" t="s">
+      <c r="Q33" t="s">
         <v>332</v>
       </c>
-      <c r="N33" t="s">
+      <c r="R33" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>247</v>
       </c>
@@ -4400,26 +4333,26 @@
       <c r="F34" t="s">
         <v>509</v>
       </c>
-      <c r="I34" t="s">
-        <v>640</v>
-      </c>
-      <c r="J34" t="s">
-        <v>574</v>
-      </c>
-      <c r="K34" t="s">
+      <c r="M34" t="s">
+        <v>645</v>
+      </c>
+      <c r="N34" t="s">
+        <v>572</v>
+      </c>
+      <c r="O34" t="s">
         <v>210</v>
       </c>
-      <c r="L34" t="s">
+      <c r="P34" t="s">
         <v>335</v>
       </c>
-      <c r="M34" t="s">
+      <c r="Q34" t="s">
         <v>332</v>
       </c>
-      <c r="N34" t="s">
+      <c r="R34" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>250</v>
       </c>
@@ -4438,26 +4371,26 @@
       <c r="F35" t="s">
         <v>510</v>
       </c>
-      <c r="I35" t="s">
-        <v>641</v>
-      </c>
-      <c r="J35" t="s">
-        <v>575</v>
-      </c>
-      <c r="K35" t="s">
+      <c r="M35" t="s">
+        <v>646</v>
+      </c>
+      <c r="N35" t="s">
+        <v>573</v>
+      </c>
+      <c r="O35" t="s">
         <v>210</v>
       </c>
-      <c r="L35" t="s">
+      <c r="P35" t="s">
         <v>57</v>
       </c>
-      <c r="M35" t="s">
+      <c r="Q35" t="s">
         <v>332</v>
       </c>
-      <c r="N35" t="s">
+      <c r="R35" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>253</v>
       </c>
@@ -4476,26 +4409,26 @@
       <c r="F36" t="s">
         <v>511</v>
       </c>
-      <c r="I36" t="s">
-        <v>642</v>
-      </c>
-      <c r="J36" t="s">
-        <v>576</v>
-      </c>
-      <c r="K36" t="s">
+      <c r="M36" t="s">
+        <v>647</v>
+      </c>
+      <c r="N36" t="s">
+        <v>574</v>
+      </c>
+      <c r="O36" t="s">
         <v>210</v>
       </c>
-      <c r="L36" t="s">
+      <c r="P36" t="s">
         <v>57</v>
       </c>
-      <c r="M36" t="s">
+      <c r="Q36" t="s">
         <v>332</v>
       </c>
-      <c r="N36" t="s">
+      <c r="R36" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>256</v>
       </c>
@@ -4514,26 +4447,26 @@
       <c r="F37" t="s">
         <v>512</v>
       </c>
-      <c r="I37" t="s">
-        <v>643</v>
-      </c>
-      <c r="J37" t="s">
-        <v>577</v>
-      </c>
-      <c r="K37" t="s">
+      <c r="M37" t="s">
+        <v>648</v>
+      </c>
+      <c r="N37" t="s">
+        <v>575</v>
+      </c>
+      <c r="O37" t="s">
         <v>210</v>
       </c>
-      <c r="L37" t="s">
+      <c r="P37" t="s">
         <v>339</v>
       </c>
-      <c r="M37" t="s">
+      <c r="Q37" t="s">
         <v>332</v>
       </c>
-      <c r="N37" t="s">
+      <c r="R37" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>258</v>
       </c>
@@ -4552,26 +4485,26 @@
       <c r="F38" t="s">
         <v>513</v>
       </c>
-      <c r="I38" t="s">
-        <v>644</v>
-      </c>
-      <c r="J38" t="s">
-        <v>578</v>
-      </c>
-      <c r="K38" t="s">
+      <c r="M38" t="s">
+        <v>649</v>
+      </c>
+      <c r="N38" t="s">
+        <v>576</v>
+      </c>
+      <c r="O38" t="s">
         <v>210</v>
       </c>
-      <c r="L38" t="s">
-        <v>679</v>
-      </c>
-      <c r="M38" t="s">
+      <c r="P38" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q38" t="s">
         <v>332</v>
       </c>
-      <c r="N38" t="s">
+      <c r="R38" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>261</v>
       </c>
@@ -4590,26 +4523,26 @@
       <c r="F39" t="s">
         <v>514</v>
       </c>
-      <c r="I39" t="s">
-        <v>645</v>
-      </c>
-      <c r="J39" t="s">
-        <v>579</v>
-      </c>
-      <c r="K39" t="s">
+      <c r="M39" t="s">
+        <v>650</v>
+      </c>
+      <c r="N39" t="s">
+        <v>577</v>
+      </c>
+      <c r="O39" t="s">
         <v>31</v>
       </c>
-      <c r="L39" t="s">
+      <c r="P39" t="s">
         <v>343</v>
       </c>
-      <c r="M39" t="s">
+      <c r="Q39" t="s">
         <v>332</v>
       </c>
-      <c r="N39" t="s">
+      <c r="R39" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>263</v>
       </c>
@@ -4628,26 +4561,26 @@
       <c r="F40" t="s">
         <v>515</v>
       </c>
-      <c r="I40" t="s">
-        <v>646</v>
-      </c>
-      <c r="J40" t="s">
-        <v>580</v>
-      </c>
-      <c r="K40" t="s">
+      <c r="M40" t="s">
+        <v>651</v>
+      </c>
+      <c r="N40" t="s">
+        <v>578</v>
+      </c>
+      <c r="O40" t="s">
         <v>31</v>
       </c>
-      <c r="L40" t="s">
+      <c r="P40" t="s">
         <v>48</v>
       </c>
-      <c r="M40" t="s">
+      <c r="Q40" t="s">
         <v>332</v>
       </c>
-      <c r="N40" t="s">
+      <c r="R40" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>266</v>
       </c>
@@ -4666,26 +4599,26 @@
       <c r="F41" t="s">
         <v>516</v>
       </c>
-      <c r="I41" t="s">
-        <v>647</v>
-      </c>
-      <c r="J41" t="s">
-        <v>581</v>
-      </c>
-      <c r="K41" t="s">
+      <c r="M41" t="s">
+        <v>652</v>
+      </c>
+      <c r="N41" t="s">
+        <v>579</v>
+      </c>
+      <c r="O41" t="s">
         <v>31</v>
       </c>
-      <c r="L41" t="s">
+      <c r="P41" t="s">
         <v>212</v>
       </c>
-      <c r="M41" t="s">
+      <c r="Q41" t="s">
         <v>332</v>
       </c>
-      <c r="N41" t="s">
+      <c r="R41" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>269</v>
       </c>
@@ -4710,26 +4643,26 @@
       <c r="H42" t="s">
         <v>517</v>
       </c>
-      <c r="I42" t="s">
-        <v>648</v>
-      </c>
-      <c r="J42" t="s">
-        <v>582</v>
-      </c>
-      <c r="K42" t="s">
+      <c r="M42" t="s">
+        <v>653</v>
+      </c>
+      <c r="N42" t="s">
+        <v>580</v>
+      </c>
+      <c r="O42" t="s">
         <v>31</v>
       </c>
-      <c r="L42" t="s">
+      <c r="P42" t="s">
         <v>350</v>
       </c>
-      <c r="M42" t="s">
+      <c r="Q42" t="s">
         <v>347</v>
       </c>
-      <c r="N42" t="s">
+      <c r="R42" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>272</v>
       </c>
@@ -4754,26 +4687,26 @@
       <c r="H43" t="s">
         <v>518</v>
       </c>
-      <c r="I43" t="s">
-        <v>649</v>
-      </c>
-      <c r="J43" t="s">
-        <v>583</v>
-      </c>
-      <c r="K43" t="s">
+      <c r="M43" t="s">
+        <v>654</v>
+      </c>
+      <c r="N43" t="s">
+        <v>581</v>
+      </c>
+      <c r="O43" t="s">
         <v>31</v>
       </c>
-      <c r="L43" t="s">
+      <c r="P43" t="s">
         <v>350</v>
       </c>
-      <c r="M43" t="s">
+      <c r="Q43" t="s">
         <v>347</v>
       </c>
-      <c r="N43" t="s">
+      <c r="R43" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>275</v>
       </c>
@@ -4792,26 +4725,26 @@
       <c r="F44" t="s">
         <v>519</v>
       </c>
-      <c r="I44" t="s">
-        <v>650</v>
-      </c>
-      <c r="J44" t="s">
-        <v>584</v>
-      </c>
-      <c r="K44" t="s">
+      <c r="M44" t="s">
+        <v>655</v>
+      </c>
+      <c r="N44" t="s">
+        <v>582</v>
+      </c>
+      <c r="O44" t="s">
         <v>31</v>
       </c>
-      <c r="L44" t="s">
+      <c r="P44" t="s">
         <v>349</v>
       </c>
-      <c r="M44" t="s">
+      <c r="Q44" t="s">
         <v>347</v>
       </c>
-      <c r="N44" t="s">
+      <c r="R44" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>278</v>
       </c>
@@ -4830,26 +4763,26 @@
       <c r="F45" t="s">
         <v>324</v>
       </c>
-      <c r="I45" t="s">
-        <v>651</v>
-      </c>
-      <c r="J45" t="s">
-        <v>585</v>
-      </c>
-      <c r="K45" t="s">
+      <c r="M45" t="s">
+        <v>656</v>
+      </c>
+      <c r="N45" t="s">
+        <v>583</v>
+      </c>
+      <c r="O45" t="s">
         <v>31</v>
       </c>
-      <c r="L45" t="s">
+      <c r="P45" t="s">
         <v>353</v>
       </c>
-      <c r="M45" t="s">
+      <c r="Q45" t="s">
         <v>347</v>
       </c>
-      <c r="N45" t="s">
+      <c r="R45" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>281</v>
       </c>
@@ -4868,26 +4801,26 @@
       <c r="F46" t="s">
         <v>520</v>
       </c>
-      <c r="I46" t="s">
-        <v>652</v>
-      </c>
-      <c r="J46" t="s">
-        <v>586</v>
-      </c>
-      <c r="K46" t="s">
+      <c r="M46" t="s">
+        <v>657</v>
+      </c>
+      <c r="N46" t="s">
+        <v>584</v>
+      </c>
+      <c r="O46" t="s">
         <v>31</v>
       </c>
-      <c r="L46" t="s">
+      <c r="P46" t="s">
         <v>355</v>
       </c>
-      <c r="M46" t="s">
+      <c r="Q46" t="s">
         <v>347</v>
       </c>
-      <c r="N46" t="s">
+      <c r="R46" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>283</v>
       </c>
@@ -4895,37 +4828,37 @@
         <v>285</v>
       </c>
       <c r="C47" t="s">
-        <v>674</v>
+        <v>606</v>
       </c>
       <c r="D47" t="s">
         <v>286</v>
       </c>
       <c r="E47" t="s">
-        <v>675</v>
+        <v>607</v>
       </c>
       <c r="F47" t="s">
         <v>521</v>
       </c>
-      <c r="I47" t="s">
-        <v>653</v>
-      </c>
-      <c r="J47" t="s">
-        <v>587</v>
-      </c>
-      <c r="K47" t="s">
+      <c r="M47" t="s">
+        <v>658</v>
+      </c>
+      <c r="N47" t="s">
+        <v>585</v>
+      </c>
+      <c r="O47" t="s">
         <v>31</v>
       </c>
-      <c r="L47" t="s">
+      <c r="P47" t="s">
         <v>356</v>
       </c>
-      <c r="M47" t="s">
+      <c r="Q47" t="s">
         <v>347</v>
       </c>
-      <c r="N47" t="s">
+      <c r="R47" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>287</v>
       </c>
@@ -4944,26 +4877,26 @@
       <c r="F48" t="s">
         <v>522</v>
       </c>
-      <c r="I48" t="s">
-        <v>654</v>
-      </c>
-      <c r="J48" t="s">
-        <v>588</v>
-      </c>
-      <c r="K48" t="s">
+      <c r="M48" t="s">
+        <v>659</v>
+      </c>
+      <c r="N48" t="s">
+        <v>586</v>
+      </c>
+      <c r="O48" t="s">
         <v>31</v>
       </c>
-      <c r="L48" t="s">
-        <v>677</v>
-      </c>
-      <c r="M48" t="s">
+      <c r="P48" t="s">
+        <v>609</v>
+      </c>
+      <c r="Q48" t="s">
         <v>347</v>
       </c>
-      <c r="N48" t="s">
+      <c r="R48" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>290</v>
       </c>
@@ -4982,26 +4915,26 @@
       <c r="F49" t="s">
         <v>523</v>
       </c>
-      <c r="I49" t="s">
-        <v>655</v>
-      </c>
-      <c r="J49" t="s">
-        <v>589</v>
-      </c>
-      <c r="K49" t="s">
+      <c r="M49" t="s">
+        <v>660</v>
+      </c>
+      <c r="N49" t="s">
+        <v>587</v>
+      </c>
+      <c r="O49" t="s">
         <v>31</v>
       </c>
-      <c r="L49" t="s">
+      <c r="P49" t="s">
         <v>360</v>
       </c>
-      <c r="M49" t="s">
+      <c r="Q49" t="s">
         <v>347</v>
       </c>
-      <c r="N49" t="s">
+      <c r="R49" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>363</v>
       </c>
@@ -5020,26 +4953,26 @@
       <c r="F50" t="s">
         <v>524</v>
       </c>
-      <c r="I50" t="s">
-        <v>656</v>
-      </c>
-      <c r="J50" t="s">
-        <v>590</v>
-      </c>
-      <c r="K50" t="s">
+      <c r="M50" t="s">
+        <v>661</v>
+      </c>
+      <c r="N50" t="s">
+        <v>588</v>
+      </c>
+      <c r="O50" t="s">
         <v>31</v>
       </c>
-      <c r="L50" t="s">
+      <c r="P50" t="s">
         <v>362</v>
       </c>
-      <c r="M50" t="s">
+      <c r="Q50" t="s">
         <v>347</v>
       </c>
-      <c r="N50" t="s">
+      <c r="R50" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>368</v>
       </c>
@@ -5058,26 +4991,26 @@
       <c r="F51" t="s">
         <v>525</v>
       </c>
-      <c r="I51" t="s">
-        <v>657</v>
-      </c>
-      <c r="J51" t="s">
-        <v>591</v>
-      </c>
-      <c r="K51" t="s">
+      <c r="M51" t="s">
+        <v>662</v>
+      </c>
+      <c r="N51" t="s">
+        <v>589</v>
+      </c>
+      <c r="O51" t="s">
         <v>31</v>
       </c>
-      <c r="L51" t="s">
+      <c r="P51" t="s">
         <v>449</v>
       </c>
-      <c r="M51" t="s">
+      <c r="Q51" t="s">
         <v>450</v>
       </c>
-      <c r="N51" t="s">
+      <c r="R51" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>371</v>
       </c>
@@ -5096,26 +5029,26 @@
       <c r="F52" t="s">
         <v>526</v>
       </c>
-      <c r="I52" t="s">
-        <v>658</v>
-      </c>
-      <c r="J52" t="s">
-        <v>592</v>
-      </c>
-      <c r="K52" t="s">
+      <c r="M52" t="s">
+        <v>663</v>
+      </c>
+      <c r="N52" t="s">
+        <v>590</v>
+      </c>
+      <c r="O52" t="s">
         <v>31</v>
       </c>
-      <c r="L52" t="s">
+      <c r="P52" t="s">
         <v>57</v>
       </c>
-      <c r="M52" t="s">
+      <c r="Q52" t="s">
         <v>450</v>
       </c>
-      <c r="N52" t="s">
+      <c r="R52" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>374</v>
       </c>
@@ -5134,26 +5067,26 @@
       <c r="F53" t="s">
         <v>527</v>
       </c>
-      <c r="I53" t="s">
-        <v>659</v>
-      </c>
-      <c r="J53" t="s">
-        <v>593</v>
-      </c>
-      <c r="K53" t="s">
+      <c r="M53" t="s">
+        <v>664</v>
+      </c>
+      <c r="N53" t="s">
+        <v>591</v>
+      </c>
+      <c r="O53" t="s">
         <v>31</v>
       </c>
-      <c r="L53" t="s">
+      <c r="P53" t="s">
         <v>453</v>
       </c>
-      <c r="M53" t="s">
+      <c r="Q53" t="s">
         <v>450</v>
       </c>
-      <c r="N53" t="s">
+      <c r="R53" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>377</v>
       </c>
@@ -5172,26 +5105,26 @@
       <c r="F54" t="s">
         <v>528</v>
       </c>
-      <c r="I54" t="s">
-        <v>660</v>
-      </c>
-      <c r="J54" t="s">
-        <v>594</v>
-      </c>
-      <c r="K54" t="s">
+      <c r="M54" t="s">
+        <v>665</v>
+      </c>
+      <c r="N54" t="s">
+        <v>592</v>
+      </c>
+      <c r="O54" t="s">
         <v>210</v>
       </c>
-      <c r="L54" t="s">
+      <c r="P54" t="s">
         <v>456</v>
       </c>
-      <c r="M54" t="s">
+      <c r="Q54" t="s">
         <v>450</v>
       </c>
-      <c r="N54" t="s">
+      <c r="R54" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>379</v>
       </c>
@@ -5210,26 +5143,26 @@
       <c r="F55" t="s">
         <v>529</v>
       </c>
-      <c r="I55" t="s">
-        <v>661</v>
-      </c>
-      <c r="J55" t="s">
-        <v>595</v>
-      </c>
-      <c r="K55" t="s">
+      <c r="M55" t="s">
+        <v>666</v>
+      </c>
+      <c r="N55" t="s">
+        <v>593</v>
+      </c>
+      <c r="O55" t="s">
         <v>457</v>
       </c>
-      <c r="L55" t="s">
+      <c r="P55" t="s">
         <v>458</v>
       </c>
-      <c r="M55" t="s">
+      <c r="Q55" t="s">
         <v>450</v>
       </c>
-      <c r="N55" t="s">
+      <c r="R55" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>382</v>
       </c>
@@ -5248,26 +5181,26 @@
       <c r="F56" t="s">
         <v>530</v>
       </c>
-      <c r="I56" t="s">
-        <v>662</v>
-      </c>
-      <c r="J56" t="s">
-        <v>596</v>
-      </c>
-      <c r="K56" t="s">
+      <c r="M56" t="s">
+        <v>667</v>
+      </c>
+      <c r="N56" t="s">
+        <v>594</v>
+      </c>
+      <c r="O56" t="s">
         <v>460</v>
       </c>
-      <c r="L56" t="s">
+      <c r="P56" t="s">
         <v>461</v>
       </c>
-      <c r="M56" t="s">
+      <c r="Q56" t="s">
         <v>462</v>
       </c>
-      <c r="N56" t="s">
+      <c r="R56" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>384</v>
       </c>
@@ -5286,26 +5219,26 @@
       <c r="F57" t="s">
         <v>531</v>
       </c>
-      <c r="I57" t="s">
-        <v>663</v>
-      </c>
-      <c r="J57" t="s">
-        <v>597</v>
-      </c>
-      <c r="K57" t="s">
+      <c r="M57" t="s">
+        <v>668</v>
+      </c>
+      <c r="N57" t="s">
+        <v>595</v>
+      </c>
+      <c r="O57" t="s">
         <v>31</v>
       </c>
-      <c r="L57" t="s">
+      <c r="P57" t="s">
         <v>57</v>
       </c>
-      <c r="M57" t="s">
+      <c r="Q57" t="s">
         <v>462</v>
       </c>
-      <c r="N57" t="s">
+      <c r="R57" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>386</v>
       </c>
@@ -5324,26 +5257,26 @@
       <c r="F58" t="s">
         <v>532</v>
       </c>
-      <c r="I58" t="s">
-        <v>664</v>
-      </c>
-      <c r="J58" t="s">
-        <v>598</v>
-      </c>
-      <c r="K58" t="s">
+      <c r="M58" t="s">
+        <v>669</v>
+      </c>
+      <c r="N58" t="s">
+        <v>596</v>
+      </c>
+      <c r="O58" t="s">
         <v>31</v>
       </c>
-      <c r="L58" t="s">
+      <c r="P58" t="s">
         <v>464</v>
       </c>
-      <c r="M58" t="s">
+      <c r="Q58" t="s">
         <v>462</v>
       </c>
-      <c r="N58" t="s">
+      <c r="R58" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>388</v>
       </c>
@@ -5368,26 +5301,26 @@
       <c r="H59" t="s">
         <v>533</v>
       </c>
-      <c r="I59" t="s">
-        <v>665</v>
-      </c>
-      <c r="J59" t="s">
-        <v>599</v>
-      </c>
-      <c r="K59" t="s">
+      <c r="M59" t="s">
+        <v>670</v>
+      </c>
+      <c r="N59" t="s">
+        <v>597</v>
+      </c>
+      <c r="O59" t="s">
         <v>31</v>
       </c>
-      <c r="L59" t="s">
+      <c r="P59" t="s">
         <v>467</v>
       </c>
-      <c r="M59" t="s">
+      <c r="Q59" t="s">
         <v>462</v>
       </c>
-      <c r="N59" t="s">
+      <c r="R59" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>390</v>
       </c>
@@ -5406,26 +5339,26 @@
       <c r="F60" t="s">
         <v>534</v>
       </c>
-      <c r="I60" t="s">
-        <v>666</v>
-      </c>
-      <c r="J60" t="s">
-        <v>600</v>
-      </c>
-      <c r="K60" t="s">
+      <c r="M60" t="s">
+        <v>671</v>
+      </c>
+      <c r="N60" t="s">
+        <v>598</v>
+      </c>
+      <c r="O60" t="s">
         <v>153</v>
       </c>
-      <c r="L60" t="s">
+      <c r="P60" t="s">
         <v>53</v>
       </c>
-      <c r="M60" t="s">
+      <c r="Q60" t="s">
         <v>469</v>
       </c>
-      <c r="N60" t="s">
+      <c r="R60" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>392</v>
       </c>
@@ -5444,26 +5377,26 @@
       <c r="F61" t="s">
         <v>535</v>
       </c>
-      <c r="I61" t="s">
-        <v>667</v>
-      </c>
-      <c r="J61" t="s">
-        <v>601</v>
-      </c>
-      <c r="K61" t="s">
+      <c r="M61" t="s">
+        <v>672</v>
+      </c>
+      <c r="N61" t="s">
+        <v>599</v>
+      </c>
+      <c r="O61" t="s">
         <v>153</v>
       </c>
-      <c r="L61" t="s">
-        <v>676</v>
-      </c>
-      <c r="M61" t="s">
+      <c r="P61" t="s">
+        <v>608</v>
+      </c>
+      <c r="Q61" t="s">
         <v>469</v>
       </c>
-      <c r="N61" t="s">
+      <c r="R61" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>394</v>
       </c>
@@ -5488,26 +5421,26 @@
       <c r="H62" t="s">
         <v>536</v>
       </c>
-      <c r="I62" t="s">
-        <v>668</v>
-      </c>
-      <c r="J62" t="s">
-        <v>602</v>
-      </c>
-      <c r="K62" t="s">
+      <c r="M62" t="s">
+        <v>673</v>
+      </c>
+      <c r="N62" t="s">
+        <v>600</v>
+      </c>
+      <c r="O62" t="s">
         <v>153</v>
       </c>
-      <c r="L62" t="s">
+      <c r="P62" t="s">
         <v>48</v>
       </c>
-      <c r="M62" t="s">
+      <c r="Q62" t="s">
         <v>469</v>
       </c>
-      <c r="N62" t="s">
+      <c r="R62" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>396</v>
       </c>
@@ -5526,26 +5459,26 @@
       <c r="F63" t="s">
         <v>537</v>
       </c>
-      <c r="I63" t="s">
-        <v>669</v>
-      </c>
-      <c r="J63" t="s">
-        <v>603</v>
-      </c>
-      <c r="K63" t="s">
+      <c r="M63" t="s">
+        <v>674</v>
+      </c>
+      <c r="N63" t="s">
+        <v>601</v>
+      </c>
+      <c r="O63" t="s">
         <v>153</v>
       </c>
-      <c r="L63" t="s">
+      <c r="P63" t="s">
         <v>482</v>
       </c>
-      <c r="M63" t="s">
+      <c r="Q63" t="s">
         <v>475</v>
       </c>
-      <c r="N63" t="s">
+      <c r="R63" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>398</v>
       </c>
@@ -5570,26 +5503,26 @@
       <c r="H64" t="s">
         <v>538</v>
       </c>
-      <c r="I64" t="s">
-        <v>670</v>
-      </c>
-      <c r="J64" t="s">
-        <v>604</v>
-      </c>
-      <c r="K64" t="s">
+      <c r="M64" t="s">
+        <v>675</v>
+      </c>
+      <c r="N64" t="s">
+        <v>602</v>
+      </c>
+      <c r="O64" t="s">
         <v>472</v>
       </c>
-      <c r="L64" t="s">
+      <c r="P64" t="s">
         <v>473</v>
       </c>
-      <c r="M64" t="s">
+      <c r="Q64" t="s">
         <v>475</v>
       </c>
-      <c r="N64" t="s">
+      <c r="R64" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>401</v>
       </c>
@@ -5608,26 +5541,26 @@
       <c r="F65" t="s">
         <v>539</v>
       </c>
-      <c r="I65" t="s">
-        <v>671</v>
-      </c>
-      <c r="J65" t="s">
-        <v>605</v>
-      </c>
-      <c r="K65" t="s">
+      <c r="M65" t="s">
+        <v>676</v>
+      </c>
+      <c r="N65" t="s">
+        <v>603</v>
+      </c>
+      <c r="O65" t="s">
         <v>153</v>
       </c>
-      <c r="L65" t="s">
+      <c r="P65" t="s">
         <v>477</v>
       </c>
-      <c r="M65" t="s">
+      <c r="Q65" t="s">
         <v>475</v>
       </c>
-      <c r="N65" t="s">
+      <c r="R65" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>403</v>
       </c>
@@ -5646,26 +5579,26 @@
       <c r="F66" t="s">
         <v>445</v>
       </c>
-      <c r="I66" t="s">
-        <v>672</v>
-      </c>
-      <c r="J66" t="s">
-        <v>606</v>
-      </c>
-      <c r="K66" t="s">
+      <c r="M66" t="s">
+        <v>677</v>
+      </c>
+      <c r="N66" t="s">
+        <v>604</v>
+      </c>
+      <c r="O66" t="s">
         <v>153</v>
       </c>
-      <c r="L66" t="s">
+      <c r="P66" t="s">
         <v>479</v>
       </c>
-      <c r="M66" t="s">
+      <c r="Q66" t="s">
         <v>475</v>
       </c>
-      <c r="N66" t="s">
+      <c r="R66" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>406</v>
       </c>
@@ -5684,24 +5617,28 @@
       <c r="F67" t="s">
         <v>540</v>
       </c>
-      <c r="I67" t="s">
-        <v>673</v>
-      </c>
-      <c r="J67" t="s">
-        <v>607</v>
-      </c>
-      <c r="K67" t="s">
+      <c r="M67" t="s">
+        <v>678</v>
+      </c>
+      <c r="N67" t="s">
+        <v>605</v>
+      </c>
+      <c r="O67" t="s">
         <v>153</v>
       </c>
-      <c r="L67" t="s">
-        <v>678</v>
-      </c>
-      <c r="M67" t="s">
+      <c r="P67" t="s">
+        <v>610</v>
+      </c>
+      <c r="Q67" t="s">
         <v>475</v>
       </c>
-      <c r="N67" t="s">
+      <c r="R67" t="s">
         <v>481</v>
       </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
